--- a/dataset-2/2-with_data_augmentation/results/border_smote.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/border_smote.xlsx
@@ -423,13 +423,13 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.6</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="C2">
-        <v>0.8571428571428571</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="D2">
-        <v>0.7058823529411764</v>
+        <v>0.4530386740331492</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -437,13 +437,13 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.7777777777777778</v>
+        <v>0.8088235294117647</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.9482758620689655</v>
       </c>
       <c r="D3">
-        <v>0.8750000000000001</v>
+        <v>0.873015873015873</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.7</v>
+        <v>0.765625</v>
       </c>
       <c r="C4">
-        <v>1</v>
+        <v>0.8448275862068966</v>
       </c>
       <c r="D4">
-        <v>0.8235294117647058</v>
+        <v>0.8032786885245901</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -465,13 +465,13 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.7777777777777778</v>
+        <v>0.3035714285714285</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.8793103448275862</v>
       </c>
       <c r="D5">
-        <v>0.8750000000000001</v>
+        <v>0.4513274336283186</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.7</v>
+        <v>0.6119402985074627</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>0.7068965517241379</v>
       </c>
       <c r="D6">
-        <v>0.8235294117647058</v>
+        <v>0.6559999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/dataset-2/2-with_data_augmentation/results/border_smote.xlsx
+++ b/dataset-2/2-with_data_augmentation/results/border_smote.xlsx
@@ -451,13 +451,13 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.765625</v>
+        <v>0.75</v>
       </c>
       <c r="C4">
-        <v>0.8448275862068966</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="D4">
-        <v>0.8032786885245901</v>
+        <v>0.7627118644067795</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -479,13 +479,13 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.6119402985074627</v>
+        <v>0.5106382978723404</v>
       </c>
       <c r="C6">
-        <v>0.7068965517241379</v>
+        <v>0.8275862068965517</v>
       </c>
       <c r="D6">
-        <v>0.6559999999999999</v>
+        <v>0.631578947368421</v>
       </c>
     </row>
   </sheetData>
